--- a/Design/Configure/Modules.xlsx
+++ b/Design/Configure/Modules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\Documents\UiPath\LazyFramework\Configure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\Documents\UiPath\LazyFramework\Design\Configure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2CBFF-CA4A-47E4-A255-2C5E0B41BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC88368-3AB6-4A3E-864D-3EBE07607D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="36780" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="36770" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>Dispatcher - Basic</t>
   </si>
   <si>
@@ -59,27 +56,9 @@
     <t>Reporter - Basic</t>
   </si>
   <si>
-    <t>dispatcherBasic</t>
-  </si>
-  <si>
-    <t>dispatcherApplication</t>
-  </si>
-  <si>
-    <t>performerBasic</t>
-  </si>
-  <si>
-    <t>performerREFramework</t>
-  </si>
-  <si>
-    <t>reporterBasic</t>
-  </si>
-  <si>
     <t>WorkflowsRoot</t>
   </si>
   <si>
-    <t>Config</t>
-  </si>
-  <si>
     <t>.templates\Dispatchers\Basic</t>
   </si>
   <si>
@@ -95,31 +74,28 @@
     <t>.templates\Reporters\Basic</t>
   </si>
   <si>
-    <t>Templates</t>
-  </si>
-  <si>
-    <t>.templates\Data\Templates\Shared\SysEx_Body.html,.templates\Data\Templates\Shared\SysEx_Subject.txt</t>
-  </si>
-  <si>
-    <t>.templates\Data\Templates\Performer\TransSysEx_Body.html,.templates\Data\Templates\Performer\TransSysEx_Subject.txt,.templates\Data\Templates\Performer\TransBusEx_Body.html,.templates\Data\Templates\Performer\TransBusEx_Subject.txt</t>
-  </si>
-  <si>
-    <t>.templates\Data\Templates\Reporter\Report_Subject.txt,.templates\Data\Templates\Reporter\BasicReport.xlsx,.templates\Data\Templates\Reporter\Report_Body.html</t>
-  </si>
-  <si>
-    <t>.templates\Data\Configs\BasicDispatcherConfig.xlsx</t>
-  </si>
-  <si>
-    <t>.templates\Data\Configs\ApplicationDispatcherConfig.xlsx</t>
-  </si>
-  <si>
-    <t>.templates\Data\Configs\BasicPerformerConfig.xlsx</t>
-  </si>
-  <si>
-    <t>.templates\Data\Configs\REFrameworkConfig.xlsx</t>
-  </si>
-  <si>
-    <t>.templates\Data\Configs\BasicReporterConfig.xlsx</t>
+    <t>FormFile</t>
+  </si>
+  <si>
+    <t>ModuleSetupWorkflow</t>
+  </si>
+  <si>
+    <t>ConfigPath</t>
+  </si>
+  <si>
+    <t>.templates\Dispatchers\Basic\Data\BasicDispatcherConfig.xlsx</t>
+  </si>
+  <si>
+    <t>.templates\Dispatchers\Application\Data\ApplicationDispatcherConfig.xlsx</t>
+  </si>
+  <si>
+    <t>.templates\Performers\Basic\Data\BasicPerformerConfig.xlsx</t>
+  </si>
+  <si>
+    <t>.templates\Performers\REFramework\Data\Config.xlsx</t>
+  </si>
+  <si>
+    <t>.templates\Reporters\Basic\Data\BasicReporterConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -440,14 +416,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -455,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -464,89 +440,62 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
